--- a/attendance-record.xlsx
+++ b/attendance-record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Desktop/service/Подростковая домашка ВН/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3F9CDDAB-B503-F346-9BEF-0EF765B25218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7575459D-3B37-E24D-BEE7-10C41614EF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1760" yWindow="460" windowWidth="27040" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="29">
   <si>
     <t>[42]</t>
   </si>
@@ -97,10 +97,37 @@
     <t>Ева</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тема: </t>
+  </si>
+  <si>
+    <t>Тема: Молитва</t>
+  </si>
+  <si>
+    <t>Ника К.</t>
+  </si>
+  <si>
+    <t>Тема: Прославление</t>
+  </si>
+  <si>
+    <t>Тема: Соблазны</t>
+  </si>
+  <si>
+    <t>Руфа Г.</t>
+  </si>
+  <si>
+    <t>Тема: Верность</t>
+  </si>
+  <si>
+    <t>Тема: Дух Божий в нас</t>
+  </si>
+  <si>
+    <t>Тема: Ценен ли я. Проводит Катя Ц</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тема: Отменена </t>
+  </si>
+  <si>
+    <t>Тема: Воля Божья</t>
   </si>
 </sst>
 </file>
@@ -1070,8 +1097,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="92" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="118" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1156,25 +1183,25 @@
         <v>19</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -1231,22 +1258,32 @@
         <v>8</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="21">
         <f>COUNTA(C7:J7)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L7" s="22">
         <f>K7/COUNTA($C$6:$J$6)</f>
-        <v>0.125</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -1258,20 +1295,28 @@
         <v>9</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="D8" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="F8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="21">
         <f>COUNTA(C8:J8)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L8" s="22">
         <f>K8/COUNTA($C$6:$J$6)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -1283,22 +1328,34 @@
         <v>10</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="J9" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="K9" s="21">
         <f>COUNTA(C9:J9)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L9" s="22">
         <f>K9/COUNTA($C$6:$J$6)</f>
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -1310,22 +1367,34 @@
         <v>11</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="J10" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="K10" s="21">
         <f>COUNTA(C10:J10)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L10" s="22">
         <f>K10/COUNTA($C$6:$J$6)</f>
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -1337,20 +1406,24 @@
         <v>12</v>
       </c>
       <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="D11" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="H11" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="21">
         <f>COUNTA(C11:J11)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" s="22">
         <f>K11/COUNTA($C$6:$J$6)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -1362,22 +1435,34 @@
         <v>13</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="J12" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="K12" s="21">
         <f>COUNTA(C12:J12)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L12" s="22">
         <f>K12/COUNTA($C$6:$J$6)</f>
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -1389,22 +1474,32 @@
         <v>14</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="21">
         <f>COUNTA(C13:J13)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L13" s="22">
         <f>K13/COUNTA($C$6:$J$6)</f>
-        <v>0.125</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -1418,20 +1513,30 @@
       <c r="C14" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="D14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="G14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
+      <c r="J14" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="K14" s="21">
         <f>COUNTA(C14:J14)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L14" s="22">
         <f>K14/COUNTA($C$6:$J$6)</f>
-        <v>0.125</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -1444,19 +1549,23 @@
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="E15" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="H15" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="21">
         <f>COUNTA(C15:J15)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" s="22">
         <f>K15/COUNTA($C$6:$J$6)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -1469,19 +1578,25 @@
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="E16" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="H16" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="21">
         <f>COUNTA(C16:J16)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" s="22">
         <f>K16/COUNTA($C$6:$J$6)</f>
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -1489,22 +1604,28 @@
         <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="D17" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="H17" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="21">
         <f>COUNTA(C17:J17)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L17" s="22">
         <f>K17/COUNTA($C$6:$J$6)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -1512,22 +1633,32 @@
         <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+      <c r="E18" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="G18" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+      <c r="J18" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="K18" s="21">
         <f>COUNTA(C18:J18)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L18" s="22">
         <f>K18/COUNTA($C$6:$J$6)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -1541,16 +1672,18 @@
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="H19" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="21">
         <f>COUNTA(C19:J19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="22">
         <f>K19/COUNTA($C$6:$J$6)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -1564,16 +1697,18 @@
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="H20" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="21">
         <f>COUNTA(C20:J20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="22">
         <f>K20/COUNTA($C$6:$J$6)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -1587,16 +1722,18 @@
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="H21" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="21">
         <f>COUNTA(C21:J21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="22">
         <f>K21/COUNTA($C$6:$J$6)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -1609,23 +1746,23 @@
       </c>
       <c r="D22" s="15">
         <f>COUNTA(D7:D21)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E22" s="15">
         <f>COUNTA(E7:E21)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F22" s="15">
         <f>COUNTA(F7:F21)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G22" s="15">
         <f>COUNTA(G7:G21)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H22" s="15">
         <f>COUNTA(H7:H21)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I22" s="15">
         <f>COUNTA(I7:I21)</f>
@@ -1633,7 +1770,7 @@
       </c>
       <c r="J22" s="15">
         <f>COUNTA(J7:J21)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K22" s="16"/>
     </row>
@@ -1744,31 +1881,31 @@
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" s="8"/>
     </row>

--- a/attendance-record.xlsx
+++ b/attendance-record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Desktop/service/Подростковая домашка ВН/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7575459D-3B37-E24D-BEE7-10C41614EF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EC59EF82-F604-8545-9F96-CAFD9A6B1AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="460" windowWidth="27040" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1760" yWindow="460" windowWidth="27040" windowHeight="16820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Осень 2024" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Зима 2024-2025'!$6:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Осень 2024'!$6:$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Зима 2024-2025'!$A$1:$M$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Зима 2024-2025'!$A$1:$Q$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Осень 2024'!$A$1:$L$22</definedName>
     <definedName name="checkBox">#REF!</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="36">
   <si>
     <t>[42]</t>
   </si>
@@ -128,6 +128,27 @@
   </si>
   <si>
     <t>Тема: Воля Божья</t>
+  </si>
+  <si>
+    <t>Тема: Послушание</t>
+  </si>
+  <si>
+    <t>Алена Д.</t>
+  </si>
+  <si>
+    <t>Тема: Критика. Проводит Катя Ц.</t>
+  </si>
+  <si>
+    <t>Тема: Рождественская викторина</t>
+  </si>
+  <si>
+    <t>Тема: Отменена</t>
+  </si>
+  <si>
+    <t>Тема: Истиное Евангелие</t>
+  </si>
+  <si>
+    <t>Тема: Сеющий в плоть</t>
   </si>
 </sst>
 </file>
@@ -1097,8 +1118,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="118" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="118" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1666,7 +1687,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>13</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -1792,25 +1815,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF46697B-0956-2949-AFE9-FD58B7653BB4}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="92" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" style="2" customWidth="1"/>
     <col min="2" max="2" width="22" style="2" customWidth="1"/>
-    <col min="3" max="11" width="12.83203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7" style="2" customWidth="1"/>
-    <col min="14" max="14" width="4.6640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="3" max="15" width="12.83203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="7" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
@@ -1825,8 +1848,12 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1839,9 +1866,13 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="S2" s="25"/>
+    </row>
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -1856,12 +1887,16 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="26"/>
-    </row>
-    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="S3" s="26"/>
+    </row>
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1874,32 +1909,36 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
-      <c r="M4" s="11"/>
-      <c r="O4" s="26"/>
-    </row>
-    <row r="5" spans="1:15" ht="124" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="11"/>
+      <c r="S4" s="26"/>
+    </row>
+    <row r="5" spans="1:19" ht="124" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="27" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="J5" s="27" t="s">
         <v>18</v>
@@ -1907,56 +1946,84 @@
       <c r="K5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:15" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:19" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="23">
-        <v>45658</v>
+        <v>45631</v>
       </c>
       <c r="D6" s="24">
         <f>C6+7</f>
-        <v>45665</v>
+        <v>45638</v>
       </c>
       <c r="E6" s="24">
-        <f t="shared" ref="E6:K6" si="0">D6+7</f>
-        <v>45672</v>
+        <f t="shared" ref="E6:O6" si="0">D6+7</f>
+        <v>45645</v>
       </c>
       <c r="F6" s="24">
         <f t="shared" si="0"/>
-        <v>45679</v>
+        <v>45652</v>
       </c>
       <c r="G6" s="24">
         <f t="shared" si="0"/>
-        <v>45686</v>
+        <v>45659</v>
       </c>
       <c r="H6" s="24">
         <f t="shared" si="0"/>
-        <v>45693</v>
+        <v>45666</v>
       </c>
       <c r="I6" s="24">
         <f t="shared" si="0"/>
-        <v>45700</v>
+        <v>45673</v>
       </c>
       <c r="J6" s="24">
         <f t="shared" si="0"/>
-        <v>45707</v>
+        <v>45680</v>
       </c>
       <c r="K6" s="24">
         <f t="shared" si="0"/>
-        <v>45714</v>
-      </c>
-      <c r="L6" s="4" t="s">
+        <v>45687</v>
+      </c>
+      <c r="L6" s="24">
+        <f t="shared" si="0"/>
+        <v>45694</v>
+      </c>
+      <c r="M6" s="24">
+        <f t="shared" si="0"/>
+        <v>45701</v>
+      </c>
+      <c r="N6" s="24">
+        <f t="shared" si="0"/>
+        <v>45708</v>
+      </c>
+      <c r="O6" s="24">
+        <f t="shared" si="0"/>
+        <v>45715</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="20">
         <f t="shared" ref="A7:A21" ca="1" si="1">OFFSET(A7,-1,0,1,1)+1</f>
         <v>1</v>
@@ -1964,25 +2031,39 @@
       <c r="B7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="C7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="G7" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="I7" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
-      <c r="L7" s="21">
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="21">
         <f>COUNTA(C7:K7)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="22">
-        <f>L7/COUNTA($C$6:$K$6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="22">
+        <f>P7/COUNTA($C$6:$O$6)</f>
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="20">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
@@ -1991,24 +2072,34 @@
         <v>9</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="D8" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="G8" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="21">
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="21">
         <f>COUNTA(C8:K8)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="22">
-        <f>L8/COUNTA($C$6:$K$6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="22">
+        <f>P8/COUNTA($C$6:$O$6)</f>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="20">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
@@ -2017,24 +2108,34 @@
         <v>10</v>
       </c>
       <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="D9" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="G9" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="I9" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
-      <c r="L9" s="21">
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="21">
         <f>COUNTA(C9:K9)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="22">
-        <f>L9/COUNTA($C$6:$K$6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="22">
+        <f>P9/COUNTA($C$6:$O$6)</f>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="20">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
@@ -2042,25 +2143,39 @@
       <c r="B10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="C10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="G10" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="I10" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
-      <c r="L10" s="21">
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="21">
         <f>COUNTA(C10:K10)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="22">
-        <f>L10/COUNTA($C$6:$K$6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="22">
+        <f>P10/COUNTA($C$6:$O$6)</f>
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="20">
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
@@ -2069,7 +2184,9 @@
         <v>12</v>
       </c>
       <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="D11" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
@@ -2077,16 +2194,20 @@
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
-      <c r="L11" s="21">
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="21">
         <f>COUNTA(C11:K11)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="22">
-        <f>L11/COUNTA($C$6:$K$6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="22">
+        <f>P11/COUNTA($C$6:$O$6)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="20">
         <f t="shared" ca="1" si="1"/>
         <v>6</v>
@@ -2095,24 +2216,36 @@
         <v>13</v>
       </c>
       <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="D12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="G12" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="I12" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
-      <c r="L12" s="21">
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="21">
         <f>COUNTA(C12:K12)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="22">
-        <f>L12/COUNTA($C$6:$K$6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="22">
+        <f>P12/COUNTA($C$6:$O$6)</f>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="20">
         <f t="shared" ca="1" si="1"/>
         <v>7</v>
@@ -2120,25 +2253,37 @@
       <c r="B13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="C13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="I13" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
-      <c r="L13" s="21">
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="21">
         <f>COUNTA(C13:K13)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="22">
-        <f>L13/COUNTA($C$6:$K$6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="22">
+        <f>P13/COUNTA($C$6:$O$6)</f>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="20">
         <f t="shared" ca="1" si="1"/>
         <v>8</v>
@@ -2147,7 +2292,9 @@
         <v>15</v>
       </c>
       <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="D14" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
@@ -2155,16 +2302,20 @@
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
-      <c r="L14" s="21">
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="21">
         <f>COUNTA(C14:K14)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="22">
-        <f>L14/COUNTA($C$6:$K$6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="22">
+        <f>P14/COUNTA($C$6:$O$6)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="20">
         <f t="shared" ca="1" si="1"/>
         <v>9</v>
@@ -2172,8 +2323,12 @@
       <c r="B15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="C15" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -2181,16 +2336,20 @@
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
-      <c r="L15" s="21">
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="21">
         <f>COUNTA(C15:K15)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="22">
-        <f>L15/COUNTA($C$6:$K$6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="22">
+        <f>P15/COUNTA($C$6:$O$6)</f>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="20">
         <f t="shared" ca="1" si="1"/>
         <v>10</v>
@@ -2199,31 +2358,45 @@
         <v>17</v>
       </c>
       <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="D16" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="G16" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="21">
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="21">
         <f>COUNTA(C16:K16)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="22">
-        <f>L16/COUNTA($C$6:$K$6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="22">
+        <f>P16/COUNTA($C$6:$O$6)</f>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A17" s="20">
         <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="B17" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -2231,23 +2404,29 @@
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
-      <c r="L17" s="21">
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="21">
         <f>COUNTA(C17:K17)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="22">
-        <f>L17/COUNTA($C$6:$K$6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="22">
+        <f>P17/COUNTA($C$6:$O$6)</f>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" s="20">
         <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="D18" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
@@ -2255,23 +2434,29 @@
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
-      <c r="L18" s="21">
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="21">
         <f>COUNTA(C18:K18)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="22">
-        <f>L18/COUNTA($C$6:$K$6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="22">
+        <f>P18/COUNTA($C$6:$O$6)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" s="20">
         <f t="shared" ca="1" si="1"/>
         <v>13</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="D19" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -2279,23 +2464,29 @@
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
-      <c r="L19" s="21">
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="21">
         <f>COUNTA(C19:K19)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="22">
-        <f>L19/COUNTA($C$6:$K$6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="22">
+        <f>P19/COUNTA($C$6:$O$6)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" s="20">
         <f t="shared" ca="1" si="1"/>
         <v>14</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="D20" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -2303,23 +2494,29 @@
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
-      <c r="L20" s="21">
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="21">
         <f>COUNTA(C20:K20)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="22">
-        <f>L20/COUNTA($C$6:$K$6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="22">
+        <f>P20/COUNTA($C$6:$O$6)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A21" s="20">
         <f t="shared" ca="1" si="1"/>
         <v>15</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="D21" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -2327,30 +2524,34 @@
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
-      <c r="L21" s="21">
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="21">
         <f>COUNTA(C21:K21)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="22">
-        <f>L21/COUNTA($C$6:$K$6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="22">
+        <f>P21/COUNTA($C$6:$O$6)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="B22" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="15">
         <f>COUNTA(C7:C21)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D22" s="15">
         <f>COUNTA(D7:D21)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E22" s="15">
         <f>COUNTA(E7:E21)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F22" s="15">
         <f>COUNTA(F7:F21)</f>
@@ -2358,7 +2559,7 @@
       </c>
       <c r="G22" s="15">
         <f>COUNTA(G7:G21)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H22" s="15">
         <f>COUNTA(H7:H21)</f>
@@ -2366,7 +2567,7 @@
       </c>
       <c r="I22" s="15">
         <f>COUNTA(I7:I21)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J22" s="15">
         <f>COUNTA(J7:J21)</f>
@@ -2376,11 +2577,27 @@
         <f>COUNTA(K7:K21)</f>
         <v>0</v>
       </c>
-      <c r="L22" s="16"/>
+      <c r="L22" s="15">
+        <f>COUNTA(L7:L21)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <f>COUNTA(M7:M21)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="15">
+        <f>COUNTA(N7:N21)</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="15">
+        <f>COUNTA(O7:O21)</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="16"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:K21" xr:uid="{FBE5936A-9807-4242-B92F-7C12C7F1348E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:O21" xr:uid="{FBE5936A-9807-4242-B92F-7C12C7F1348E}">
       <formula1>checkBox</formula1>
     </dataValidation>
   </dataValidations>

--- a/attendance-record.xlsx
+++ b/attendance-record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Desktop/service/Подростковая домашка ВН/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EC59EF82-F604-8545-9F96-CAFD9A6B1AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C476F6-E10E-0445-B5B2-050603DD2F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="460" windowWidth="27040" windowHeight="16820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1760" yWindow="460" windowWidth="27040" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Осень 2024" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Зима 2024-2025'!$6:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Осень 2024'!$6:$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Зима 2024-2025'!$A$1:$Q$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Осень 2024'!$A$1:$L$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Зима 2024-2025'!$A:$R</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Осень 2024'!$A:$M</definedName>
     <definedName name="checkBox">#REF!</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2009-2022 Vertex42 LLC"</definedName>
@@ -1118,8 +1118,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="118" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="118" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1299,11 +1299,11 @@
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="21">
-        <f>COUNTA(C7:J7)</f>
+        <f t="shared" ref="K7:K21" si="2">COUNTA(C7:J7)</f>
         <v>6</v>
       </c>
       <c r="L7" s="22">
-        <f>K7/COUNTA($C$6:$J$6)</f>
+        <f t="shared" ref="L7:L21" si="3">K7/COUNTA($C$6:$J$6)</f>
         <v>0.75</v>
       </c>
     </row>
@@ -1332,11 +1332,11 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="21">
-        <f>COUNTA(C8:J8)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="L8" s="22">
-        <f>K8/COUNTA($C$6:$J$6)</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
@@ -1371,11 +1371,11 @@
         <v>3</v>
       </c>
       <c r="K9" s="21">
-        <f>COUNTA(C9:J9)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L9" s="22">
-        <f>K9/COUNTA($C$6:$J$6)</f>
+        <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
     </row>
@@ -1410,11 +1410,11 @@
         <v>3</v>
       </c>
       <c r="K10" s="21">
-        <f>COUNTA(C10:J10)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L10" s="22">
-        <f>K10/COUNTA($C$6:$J$6)</f>
+        <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
     </row>
@@ -1439,11 +1439,11 @@
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="21">
-        <f>COUNTA(C11:J11)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L11" s="22">
-        <f>K11/COUNTA($C$6:$J$6)</f>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
@@ -1478,11 +1478,11 @@
         <v>3</v>
       </c>
       <c r="K12" s="21">
-        <f>COUNTA(C12:J12)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L12" s="22">
-        <f>K12/COUNTA($C$6:$J$6)</f>
+        <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
     </row>
@@ -1515,11 +1515,11 @@
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="21">
-        <f>COUNTA(C13:J13)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="L13" s="22">
-        <f>K13/COUNTA($C$6:$J$6)</f>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
     </row>
@@ -1552,11 +1552,11 @@
         <v>3</v>
       </c>
       <c r="K14" s="21">
-        <f>COUNTA(C14:J14)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="L14" s="22">
-        <f>K14/COUNTA($C$6:$J$6)</f>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
     </row>
@@ -1581,11 +1581,11 @@
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="21">
-        <f>COUNTA(C15:J15)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L15" s="22">
-        <f>K15/COUNTA($C$6:$J$6)</f>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
@@ -1612,11 +1612,11 @@
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="21">
-        <f>COUNTA(C16:J16)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="L16" s="22">
-        <f>K16/COUNTA($C$6:$J$6)</f>
+        <f t="shared" si="3"/>
         <v>0.375</v>
       </c>
     </row>
@@ -1641,11 +1641,11 @@
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="21">
-        <f>COUNTA(C17:J17)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L17" s="22">
-        <f>K17/COUNTA($C$6:$J$6)</f>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
@@ -1674,11 +1674,11 @@
         <v>3</v>
       </c>
       <c r="K18" s="21">
-        <f>COUNTA(C18:J18)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="L18" s="22">
-        <f>K18/COUNTA($C$6:$J$6)</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
@@ -1701,11 +1701,11 @@
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="21">
-        <f>COUNTA(C19:J19)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L19" s="22">
-        <f>K19/COUNTA($C$6:$J$6)</f>
+        <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
     </row>
@@ -1726,11 +1726,11 @@
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="21">
-        <f>COUNTA(C20:J20)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L20" s="22">
-        <f>K20/COUNTA($C$6:$J$6)</f>
+        <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
     </row>
@@ -1751,11 +1751,11 @@
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="21">
-        <f>COUNTA(C21:J21)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L21" s="22">
-        <f>K21/COUNTA($C$6:$J$6)</f>
+        <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
     </row>
@@ -1764,35 +1764,35 @@
         <v>6</v>
       </c>
       <c r="C22" s="15">
-        <f>COUNTA(C7:C21)</f>
+        <f t="shared" ref="C22:J22" si="4">COUNTA(C7:C21)</f>
         <v>6</v>
       </c>
       <c r="D22" s="15">
-        <f>COUNTA(D7:D21)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="E22" s="15">
-        <f>COUNTA(E7:E21)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="F22" s="15">
-        <f>COUNTA(F7:F21)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="G22" s="15">
-        <f>COUNTA(G7:G21)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="H22" s="15">
-        <f>COUNTA(H7:H21)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="I22" s="15">
-        <f>COUNTA(I7:I21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J22" s="15">
-        <f>COUNTA(J7:J21)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="K22" s="16"/>
@@ -1817,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF46697B-0956-2949-AFE9-FD58B7653BB4}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView showGridLines="0" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2055,11 +2055,11 @@
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
       <c r="P7" s="21">
-        <f>COUNTA(C7:K7)</f>
+        <f t="shared" ref="P7:P21" si="2">COUNTA(C7:K7)</f>
         <v>5</v>
       </c>
       <c r="Q7" s="22">
-        <f>P7/COUNTA($C$6:$O$6)</f>
+        <f t="shared" ref="Q7:Q21" si="3">P7/COUNTA($C$6:$O$6)</f>
         <v>0.38461538461538464</v>
       </c>
     </row>
@@ -2091,11 +2091,11 @@
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
       <c r="P8" s="21">
-        <f>COUNTA(C8:K8)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="Q8" s="22">
-        <f>P8/COUNTA($C$6:$O$6)</f>
+        <f t="shared" si="3"/>
         <v>0.23076923076923078</v>
       </c>
     </row>
@@ -2127,11 +2127,11 @@
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
       <c r="P9" s="21">
-        <f>COUNTA(C9:K9)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="Q9" s="22">
-        <f>P9/COUNTA($C$6:$O$6)</f>
+        <f t="shared" si="3"/>
         <v>0.23076923076923078</v>
       </c>
     </row>
@@ -2167,11 +2167,11 @@
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
       <c r="P10" s="21">
-        <f>COUNTA(C10:K10)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="Q10" s="22">
-        <f>P10/COUNTA($C$6:$O$6)</f>
+        <f t="shared" si="3"/>
         <v>0.38461538461538464</v>
       </c>
     </row>
@@ -2199,11 +2199,11 @@
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
       <c r="P11" s="21">
-        <f>COUNTA(C11:K11)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q11" s="22">
-        <f>P11/COUNTA($C$6:$O$6)</f>
+        <f t="shared" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
@@ -2237,11 +2237,11 @@
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
       <c r="P12" s="21">
-        <f>COUNTA(C12:K12)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="Q12" s="22">
-        <f>P12/COUNTA($C$6:$O$6)</f>
+        <f t="shared" si="3"/>
         <v>0.30769230769230771</v>
       </c>
     </row>
@@ -2275,11 +2275,11 @@
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
       <c r="P13" s="21">
-        <f>COUNTA(C13:K13)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="Q13" s="22">
-        <f>P13/COUNTA($C$6:$O$6)</f>
+        <f t="shared" si="3"/>
         <v>0.30769230769230771</v>
       </c>
     </row>
@@ -2307,11 +2307,11 @@
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
       <c r="P14" s="21">
-        <f>COUNTA(C14:K14)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q14" s="22">
-        <f>P14/COUNTA($C$6:$O$6)</f>
+        <f t="shared" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
@@ -2341,11 +2341,11 @@
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
       <c r="P15" s="21">
-        <f>COUNTA(C15:K15)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q15" s="22">
-        <f>P15/COUNTA($C$6:$O$6)</f>
+        <f t="shared" si="3"/>
         <v>0.15384615384615385</v>
       </c>
     </row>
@@ -2375,11 +2375,11 @@
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
       <c r="P16" s="21">
-        <f>COUNTA(C16:K16)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q16" s="22">
-        <f>P16/COUNTA($C$6:$O$6)</f>
+        <f t="shared" si="3"/>
         <v>0.15384615384615385</v>
       </c>
     </row>
@@ -2409,11 +2409,11 @@
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
       <c r="P17" s="21">
-        <f>COUNTA(C17:K17)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q17" s="22">
-        <f>P17/COUNTA($C$6:$O$6)</f>
+        <f t="shared" si="3"/>
         <v>0.15384615384615385</v>
       </c>
     </row>
@@ -2439,11 +2439,11 @@
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
       <c r="P18" s="21">
-        <f>COUNTA(C18:K18)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q18" s="22">
-        <f>P18/COUNTA($C$6:$O$6)</f>
+        <f t="shared" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
@@ -2469,11 +2469,11 @@
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
       <c r="P19" s="21">
-        <f>COUNTA(C19:K19)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q19" s="22">
-        <f>P19/COUNTA($C$6:$O$6)</f>
+        <f t="shared" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
@@ -2499,11 +2499,11 @@
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
       <c r="P20" s="21">
-        <f>COUNTA(C20:K20)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q20" s="22">
-        <f>P20/COUNTA($C$6:$O$6)</f>
+        <f t="shared" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
@@ -2529,11 +2529,11 @@
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
       <c r="P21" s="21">
-        <f>COUNTA(C21:K21)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q21" s="22">
-        <f>P21/COUNTA($C$6:$O$6)</f>
+        <f t="shared" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
@@ -2542,55 +2542,55 @@
         <v>6</v>
       </c>
       <c r="C22" s="15">
-        <f>COUNTA(C7:C21)</f>
+        <f t="shared" ref="C22:O22" si="4">COUNTA(C7:C21)</f>
         <v>5</v>
       </c>
       <c r="D22" s="15">
-        <f>COUNTA(D7:D21)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="E22" s="15">
-        <f>COUNTA(E7:E21)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F22" s="15">
-        <f>COUNTA(F7:F21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G22" s="15">
-        <f>COUNTA(G7:G21)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="H22" s="15">
-        <f>COUNTA(H7:H21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I22" s="15">
-        <f>COUNTA(I7:I21)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="J22" s="15">
-        <f>COUNTA(J7:J21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K22" s="15">
-        <f>COUNTA(K7:K21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L22" s="15">
-        <f>COUNTA(L7:L21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M22" s="15">
-        <f>COUNTA(M7:M21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N22" s="15">
-        <f>COUNTA(N7:N21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O22" s="15">
-        <f>COUNTA(O7:O21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P22" s="16"/>

--- a/attendance-record.xlsx
+++ b/attendance-record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Desktop/service/Подростковая домашка ВН/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C476F6-E10E-0445-B5B2-050603DD2F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9153140-57BF-CA49-8B64-D6DF65C534E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="460" windowWidth="27040" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1760" yWindow="460" windowWidth="27040" windowHeight="16820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Осень 2024" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="37">
   <si>
     <t>[42]</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Тема: Сеющий в плоть</t>
+  </si>
+  <si>
+    <t>Тема: На пути в Дамаск</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1121,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="118" zoomScaleNormal="117" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="118" zoomScaleNormal="117" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -1817,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF46697B-0956-2949-AFE9-FD58B7653BB4}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1941,7 +1944,7 @@
         <v>35</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K5" s="27" t="s">
         <v>18</v>
@@ -1973,7 +1976,7 @@
         <v>45638</v>
       </c>
       <c r="E6" s="24">
-        <f t="shared" ref="E6:O6" si="0">D6+7</f>
+        <f t="shared" ref="E6:N6" si="0">D6+7</f>
         <v>45645</v>
       </c>
       <c r="F6" s="24">
@@ -2013,7 +2016,7 @@
         <v>45708</v>
       </c>
       <c r="O6" s="24">
-        <f t="shared" si="0"/>
+        <f>N6+7</f>
         <v>45715</v>
       </c>
       <c r="P6" s="4" t="s">
@@ -2048,19 +2051,21 @@
       <c r="I7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="18"/>
+      <c r="J7" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
       <c r="P7" s="21">
-        <f t="shared" ref="P7:P21" si="2">COUNTA(C7:K7)</f>
-        <v>5</v>
+        <f>COUNTA(C7:K7)</f>
+        <v>6</v>
       </c>
       <c r="Q7" s="22">
-        <f t="shared" ref="Q7:Q21" si="3">P7/COUNTA($C$6:$O$6)</f>
-        <v>0.38461538461538464</v>
+        <f>P7/COUNTA($C$6:$O$6)</f>
+        <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2084,19 +2089,21 @@
       <c r="I8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="18"/>
+      <c r="J8" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
       <c r="P8" s="21">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>COUNTA(C8:K8)</f>
+        <v>4</v>
       </c>
       <c r="Q8" s="22">
-        <f t="shared" si="3"/>
-        <v>0.23076923076923078</v>
+        <f>P8/COUNTA($C$6:$O$6)</f>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2120,19 +2127,21 @@
       <c r="I9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="18"/>
+      <c r="J9" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
       <c r="P9" s="21">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>COUNTA(C9:K9)</f>
+        <v>4</v>
       </c>
       <c r="Q9" s="22">
-        <f t="shared" si="3"/>
-        <v>0.23076923076923078</v>
+        <f>P9/COUNTA($C$6:$O$6)</f>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2160,19 +2169,21 @@
       <c r="I10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="18"/>
+      <c r="J10" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
       <c r="P10" s="21">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f>COUNTA(C10:K10)</f>
+        <v>6</v>
       </c>
       <c r="Q10" s="22">
-        <f t="shared" si="3"/>
-        <v>0.38461538461538464</v>
+        <f>P10/COUNTA($C$6:$O$6)</f>
+        <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2199,11 +2210,11 @@
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
       <c r="P11" s="21">
-        <f t="shared" si="2"/>
+        <f>COUNTA(C11:K11)</f>
         <v>1</v>
       </c>
       <c r="Q11" s="22">
-        <f t="shared" si="3"/>
+        <f>P11/COUNTA($C$6:$O$6)</f>
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
@@ -2230,19 +2241,21 @@
       <c r="I12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="18"/>
+      <c r="J12" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
       <c r="P12" s="21">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>COUNTA(C12:K12)</f>
+        <v>5</v>
       </c>
       <c r="Q12" s="22">
-        <f t="shared" si="3"/>
-        <v>0.30769230769230771</v>
+        <f>P12/COUNTA($C$6:$O$6)</f>
+        <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2268,19 +2281,21 @@
       <c r="I13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="18"/>
+      <c r="J13" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
       <c r="P13" s="21">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>COUNTA(C13:K13)</f>
+        <v>5</v>
       </c>
       <c r="Q13" s="22">
-        <f t="shared" si="3"/>
-        <v>0.30769230769230771</v>
+        <f>P13/COUNTA($C$6:$O$6)</f>
+        <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2307,11 +2322,11 @@
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
       <c r="P14" s="21">
-        <f t="shared" si="2"/>
+        <f>COUNTA(C14:K14)</f>
         <v>1</v>
       </c>
       <c r="Q14" s="22">
-        <f t="shared" si="3"/>
+        <f>P14/COUNTA($C$6:$O$6)</f>
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
@@ -2341,11 +2356,11 @@
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
       <c r="P15" s="21">
-        <f t="shared" si="2"/>
+        <f>COUNTA(C15:K15)</f>
         <v>2</v>
       </c>
       <c r="Q15" s="22">
-        <f t="shared" si="3"/>
+        <f>P15/COUNTA($C$6:$O$6)</f>
         <v>0.15384615384615385</v>
       </c>
     </row>
@@ -2375,11 +2390,11 @@
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
       <c r="P16" s="21">
-        <f t="shared" si="2"/>
+        <f>COUNTA(C16:K16)</f>
         <v>2</v>
       </c>
       <c r="Q16" s="22">
-        <f t="shared" si="3"/>
+        <f>P16/COUNTA($C$6:$O$6)</f>
         <v>0.15384615384615385</v>
       </c>
     </row>
@@ -2409,11 +2424,11 @@
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
       <c r="P17" s="21">
-        <f t="shared" si="2"/>
+        <f>COUNTA(C17:K17)</f>
         <v>2</v>
       </c>
       <c r="Q17" s="22">
-        <f t="shared" si="3"/>
+        <f>P17/COUNTA($C$6:$O$6)</f>
         <v>0.15384615384615385</v>
       </c>
     </row>
@@ -2439,11 +2454,11 @@
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
       <c r="P18" s="21">
-        <f t="shared" si="2"/>
+        <f>COUNTA(C18:K18)</f>
         <v>1</v>
       </c>
       <c r="Q18" s="22">
-        <f t="shared" si="3"/>
+        <f>P18/COUNTA($C$6:$O$6)</f>
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
@@ -2469,11 +2484,11 @@
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
       <c r="P19" s="21">
-        <f t="shared" si="2"/>
+        <f>COUNTA(C19:K19)</f>
         <v>1</v>
       </c>
       <c r="Q19" s="22">
-        <f t="shared" si="3"/>
+        <f>P19/COUNTA($C$6:$O$6)</f>
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
@@ -2499,11 +2514,11 @@
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
       <c r="P20" s="21">
-        <f t="shared" si="2"/>
+        <f>COUNTA(C20:K20)</f>
         <v>1</v>
       </c>
       <c r="Q20" s="22">
-        <f t="shared" si="3"/>
+        <f>P20/COUNTA($C$6:$O$6)</f>
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
@@ -2529,11 +2544,11 @@
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
       <c r="P21" s="21">
-        <f t="shared" si="2"/>
+        <f>COUNTA(C21:K21)</f>
         <v>1</v>
       </c>
       <c r="Q21" s="22">
-        <f t="shared" si="3"/>
+        <f>P21/COUNTA($C$6:$O$6)</f>
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
@@ -2542,55 +2557,55 @@
         <v>6</v>
       </c>
       <c r="C22" s="15">
-        <f t="shared" ref="C22:O22" si="4">COUNTA(C7:C21)</f>
+        <f t="shared" ref="C22:O22" si="2">COUNTA(C7:C21)</f>
         <v>5</v>
       </c>
       <c r="D22" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="E22" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F22" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G22" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H22" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I22" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="J22" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K22" s="15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K22" s="15">
-        <f t="shared" si="4"/>
+      <c r="L22" s="15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L22" s="15">
-        <f t="shared" si="4"/>
+      <c r="M22" s="15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M22" s="15">
-        <f t="shared" si="4"/>
+      <c r="N22" s="15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N22" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="O22" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P22" s="16"/>

--- a/attendance-record.xlsx
+++ b/attendance-record.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Desktop/service/Подростковая домашка ВН/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9153140-57BF-CA49-8B64-D6DF65C534E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE722947-C0E8-E84A-BE52-B5D373252273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="460" windowWidth="27040" windowHeight="16820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Осень 2024" sheetId="1" r:id="rId1"/>
     <sheet name="Зима 2024-2025" sheetId="3" r:id="rId2"/>
+    <sheet name="Весна 2025" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Весна 2025'!$6:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Зима 2024-2025'!$6:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Осень 2024'!$6:$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Весна 2025'!$A:$R</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Зима 2024-2025'!$A:$R</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Осень 2024'!$A:$M</definedName>
     <definedName name="checkBox">#REF!</definedName>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="45">
   <si>
     <t>[42]</t>
   </si>
@@ -152,6 +155,30 @@
   </si>
   <si>
     <t>Тема: На пути в Дамаск</t>
+  </si>
+  <si>
+    <t>Тема: Искренние отношения с Богом</t>
+  </si>
+  <si>
+    <t>Тема:</t>
+  </si>
+  <si>
+    <t>Тема: послушание важнее жертвы</t>
+  </si>
+  <si>
+    <t>Тема:  Дружба</t>
+  </si>
+  <si>
+    <t>Тема: отмена</t>
+  </si>
+  <si>
+    <t>Тема: отмена ВСЕХ домашек</t>
+  </si>
+  <si>
+    <t>Тема: Грех – попасть мимо цели</t>
+  </si>
+  <si>
+    <t>Тема: ???</t>
   </si>
 </sst>
 </file>
@@ -1820,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF46697B-0956-2949-AFE9-FD58B7653BB4}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="116" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1947,19 +1974,19 @@
         <v>36</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="P5" s="8"/>
     </row>
@@ -2054,18 +2081,24 @@
       <c r="J7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+      <c r="K7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
       <c r="P7" s="21">
-        <f>COUNTA(C7:K7)</f>
-        <v>6</v>
+        <f t="shared" ref="P7:P21" si="2">COUNTA(C7:K7)</f>
+        <v>7</v>
       </c>
       <c r="Q7" s="22">
-        <f>P7/COUNTA($C$6:$O$6)</f>
-        <v>0.46153846153846156</v>
+        <f t="shared" ref="Q7:Q21" si="3">P7/COUNTA($C$6:$O$6)</f>
+        <v>0.53846153846153844</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2092,18 +2125,24 @@
       <c r="J8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+      <c r="K8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
       <c r="P8" s="21">
-        <f>COUNTA(C8:K8)</f>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="Q8" s="22">
-        <f>P8/COUNTA($C$6:$O$6)</f>
-        <v>0.30769230769230771</v>
+        <f t="shared" si="3"/>
+        <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2130,18 +2169,24 @@
       <c r="J9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
+      <c r="K9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
       <c r="P9" s="21">
-        <f>COUNTA(C9:K9)</f>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="Q9" s="22">
-        <f>P9/COUNTA($C$6:$O$6)</f>
-        <v>0.30769230769230771</v>
+        <f t="shared" si="3"/>
+        <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2172,18 +2217,24 @@
       <c r="J10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
+      <c r="K10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
       <c r="P10" s="21">
-        <f>COUNTA(C10:K10)</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="Q10" s="22">
-        <f>P10/COUNTA($C$6:$O$6)</f>
-        <v>0.46153846153846156</v>
+        <f t="shared" si="3"/>
+        <v>0.53846153846153844</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2204,18 +2255,22 @@
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+      <c r="K11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
       <c r="P11" s="21">
-        <f>COUNTA(C11:K11)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="Q11" s="22">
-        <f>P11/COUNTA($C$6:$O$6)</f>
-        <v>7.6923076923076927E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.15384615384615385</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2244,18 +2299,24 @@
       <c r="J12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
+      <c r="K12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
       <c r="P12" s="21">
-        <f>COUNTA(C12:K12)</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="Q12" s="22">
-        <f>P12/COUNTA($C$6:$O$6)</f>
-        <v>0.38461538461538464</v>
+        <f t="shared" si="3"/>
+        <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2284,18 +2345,24 @@
       <c r="J13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
+      <c r="K13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
       <c r="P13" s="21">
-        <f>COUNTA(C13:K13)</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="Q13" s="22">
-        <f>P13/COUNTA($C$6:$O$6)</f>
-        <v>0.38461538461538464</v>
+        <f t="shared" si="3"/>
+        <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2316,18 +2383,22 @@
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
+      <c r="K14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
       <c r="P14" s="21">
-        <f>COUNTA(C14:K14)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="Q14" s="22">
-        <f>P14/COUNTA($C$6:$O$6)</f>
-        <v>7.6923076923076927E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.15384615384615385</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2350,18 +2421,24 @@
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
+      <c r="K15" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
       <c r="P15" s="21">
-        <f>COUNTA(C15:K15)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="Q15" s="22">
-        <f>P15/COUNTA($C$6:$O$6)</f>
-        <v>0.15384615384615385</v>
+        <f t="shared" si="3"/>
+        <v>0.23076923076923078</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2384,18 +2461,22 @@
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
+      <c r="K16" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
       <c r="P16" s="21">
-        <f>COUNTA(C16:K16)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="Q16" s="22">
-        <f>P16/COUNTA($C$6:$O$6)</f>
-        <v>0.15384615384615385</v>
+        <f t="shared" si="3"/>
+        <v>0.23076923076923078</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2418,18 +2499,24 @@
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
+      <c r="K17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
       <c r="P17" s="21">
-        <f>COUNTA(C17:K17)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="Q17" s="22">
-        <f>P17/COUNTA($C$6:$O$6)</f>
-        <v>0.15384615384615385</v>
+        <f t="shared" si="3"/>
+        <v>0.23076923076923078</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2448,18 +2535,22 @@
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
+      <c r="K18" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
       <c r="P18" s="21">
-        <f>COUNTA(C18:K18)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="Q18" s="22">
-        <f>P18/COUNTA($C$6:$O$6)</f>
-        <v>7.6923076923076927E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.15384615384615385</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2478,18 +2569,22 @@
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
+      <c r="K19" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
       <c r="P19" s="21">
-        <f>COUNTA(C19:K19)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="Q19" s="22">
-        <f>P19/COUNTA($C$6:$O$6)</f>
-        <v>7.6923076923076927E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.15384615384615385</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2508,18 +2603,22 @@
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
+      <c r="K20" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
       <c r="P20" s="21">
-        <f>COUNTA(C20:K20)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="Q20" s="22">
-        <f>P20/COUNTA($C$6:$O$6)</f>
-        <v>7.6923076923076927E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.15384615384615385</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2538,18 +2637,22 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
+      <c r="K21" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
       <c r="P21" s="21">
-        <f>COUNTA(C21:K21)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="Q21" s="22">
-        <f>P21/COUNTA($C$6:$O$6)</f>
-        <v>7.6923076923076927E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.15384615384615385</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2557,55 +2660,55 @@
         <v>6</v>
       </c>
       <c r="C22" s="15">
-        <f t="shared" ref="C22:O22" si="2">COUNTA(C7:C21)</f>
+        <f t="shared" ref="C22:O22" si="4">COUNTA(C7:C21)</f>
         <v>5</v>
       </c>
       <c r="D22" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="E22" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F22" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G22" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="H22" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I22" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="J22" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="K22" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="L22" s="15">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="M22" s="15">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="15">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L22" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="O22" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P22" s="16"/>
@@ -2623,4 +2726,779 @@
     <oddFooter>&amp;L&amp;8&amp;K01+032Attendance Record Template © 2009-2014 by Vertex42.com&amp;R&amp;8&amp;K01+032https://www.vertex42.com/ExcelTemplates/attendance-record.html</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3ECF9E-36B3-714F-A00E-1D150ED51DFE}">
+  <dimension ref="A1:S22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="116" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22" style="2" customWidth="1"/>
+    <col min="3" max="15" width="12.83203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="7" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="S2" s="25"/>
+    </row>
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="26"/>
+    </row>
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="11"/>
+      <c r="S4" s="26"/>
+    </row>
+    <row r="5" spans="1:19" ht="124" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:19" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="23">
+        <v>45722</v>
+      </c>
+      <c r="D6" s="24">
+        <f>C6+7</f>
+        <v>45729</v>
+      </c>
+      <c r="E6" s="24">
+        <f t="shared" ref="E6:N6" si="0">D6+7</f>
+        <v>45736</v>
+      </c>
+      <c r="F6" s="24">
+        <f t="shared" si="0"/>
+        <v>45743</v>
+      </c>
+      <c r="G6" s="24">
+        <f t="shared" si="0"/>
+        <v>45750</v>
+      </c>
+      <c r="H6" s="24">
+        <f t="shared" si="0"/>
+        <v>45757</v>
+      </c>
+      <c r="I6" s="24">
+        <f t="shared" si="0"/>
+        <v>45764</v>
+      </c>
+      <c r="J6" s="24">
+        <f t="shared" si="0"/>
+        <v>45771</v>
+      </c>
+      <c r="K6" s="24">
+        <f t="shared" si="0"/>
+        <v>45778</v>
+      </c>
+      <c r="L6" s="24">
+        <f t="shared" si="0"/>
+        <v>45785</v>
+      </c>
+      <c r="M6" s="24">
+        <f t="shared" si="0"/>
+        <v>45792</v>
+      </c>
+      <c r="N6" s="24">
+        <f t="shared" si="0"/>
+        <v>45799</v>
+      </c>
+      <c r="O6" s="24">
+        <f>N6+7</f>
+        <v>45806</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A7" s="20">
+        <f t="shared" ref="A7:A21" ca="1" si="1">OFFSET(A7,-1,0,1,1)+1</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="21">
+        <f t="shared" ref="P7:P21" si="2">COUNTA(C7:K7)</f>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="22">
+        <f t="shared" ref="Q7:Q21" si="3">P7/COUNTA($C$6:$O$6)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A8" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="21">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q8" s="22">
+        <f t="shared" si="3"/>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A9" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="22">
+        <f t="shared" si="3"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A10" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="21">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q10" s="22">
+        <f t="shared" si="3"/>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A11" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="22">
+        <f t="shared" si="3"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A12" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="21">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q12" s="22">
+        <f t="shared" si="3"/>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A13" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="21">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q13" s="22">
+        <f t="shared" si="3"/>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A14" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="22">
+        <f t="shared" si="3"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A15" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="22">
+        <f t="shared" si="3"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A16" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="22">
+        <f t="shared" si="3"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A17" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="22">
+        <f t="shared" si="3"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A18" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q18" s="22">
+        <f t="shared" si="3"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A19" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="22">
+        <f t="shared" si="3"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A20" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="22">
+        <f t="shared" si="3"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A21" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="22">
+        <f t="shared" si="3"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="B22" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="15">
+        <f t="shared" ref="C22:O22" si="4">COUNTA(C7:C21)</f>
+        <v>15</v>
+      </c>
+      <c r="D22" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="15">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="15">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="16"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:O21" xr:uid="{033A76D1-A36C-944D-AC08-00F3517A8DD4}">
+      <formula1>checkBox</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;8&amp;K01+032Attendance Record Template © 2009-2014 by Vertex42.com&amp;R&amp;8&amp;K01+032https://www.vertex42.com/ExcelTemplates/attendance-record.html</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/attendance-record.xlsx
+++ b/attendance-record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Desktop/service/Подростковая домашка ВН/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE722947-C0E8-E84A-BE52-B5D373252273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC5A473-64DA-6D41-B7FE-7B0DEED9D832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="46">
   <si>
     <t>[42]</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Тема: ???</t>
+  </si>
+  <si>
+    <t>Тема: Духовная зрелость</t>
   </si>
 </sst>
 </file>
@@ -1847,8 +1850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF46697B-0956-2949-AFE9-FD58B7653BB4}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="116" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="116" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2070,11 +2073,15 @@
       <c r="E7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="G7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I7" s="18" t="s">
         <v>3</v>
       </c>
@@ -2090,15 +2097,19 @@
       <c r="M7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
+      <c r="N7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="P7" s="21">
         <f t="shared" ref="P7:P21" si="2">COUNTA(C7:K7)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q7" s="22">
         <f t="shared" ref="Q7:Q21" si="3">P7/COUNTA($C$6:$O$6)</f>
-        <v>0.53846153846153844</v>
+        <v>0.69230769230769229</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2114,11 +2125,15 @@
         <v>3</v>
       </c>
       <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="F8" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="G8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I8" s="18" t="s">
         <v>3</v>
       </c>
@@ -2134,15 +2149,19 @@
       <c r="M8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
+      <c r="N8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="P8" s="21">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q8" s="22">
         <f t="shared" si="3"/>
-        <v>0.38461538461538464</v>
+        <v>0.53846153846153844</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2158,11 +2177,15 @@
         <v>3</v>
       </c>
       <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="F9" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="G9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I9" s="18" t="s">
         <v>3</v>
       </c>
@@ -2178,15 +2201,19 @@
       <c r="M9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
+      <c r="N9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="P9" s="21">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q9" s="22">
         <f t="shared" si="3"/>
-        <v>0.38461538461538464</v>
+        <v>0.53846153846153844</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2206,11 +2233,15 @@
       <c r="E10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="18"/>
+      <c r="H10" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I10" s="18" t="s">
         <v>3</v>
       </c>
@@ -2226,15 +2257,19 @@
       <c r="M10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
+      <c r="N10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="P10" s="21">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q10" s="22">
         <f t="shared" si="3"/>
-        <v>0.53846153846153844</v>
+        <v>0.69230769230769229</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2250,9 +2285,13 @@
         <v>3</v>
       </c>
       <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+      <c r="F11" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="H11" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18" t="s">
@@ -2262,15 +2301,19 @@
         <v>3</v>
       </c>
       <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
+      <c r="N11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="P11" s="21">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q11" s="22">
         <f t="shared" si="3"/>
-        <v>0.15384615384615385</v>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2288,11 +2331,15 @@
       <c r="E12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="G12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="H12" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I12" s="18" t="s">
         <v>3</v>
       </c>
@@ -2308,15 +2355,19 @@
       <c r="M12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
+      <c r="N12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="P12" s="21">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q12" s="22">
         <f t="shared" si="3"/>
-        <v>0.46153846153846156</v>
+        <v>0.61538461538461542</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2336,9 +2387,13 @@
       <c r="E13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="H13" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I13" s="18" t="s">
         <v>3</v>
       </c>
@@ -2354,15 +2409,19 @@
       <c r="M13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
+      <c r="N13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="P13" s="21">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q13" s="22">
         <f t="shared" si="3"/>
-        <v>0.46153846153846156</v>
+        <v>0.61538461538461542</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2378,9 +2437,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="F14" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="H14" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18" t="s">
@@ -2390,15 +2453,19 @@
         <v>3</v>
       </c>
       <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
+      <c r="N14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="P14" s="21">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q14" s="22">
         <f t="shared" si="3"/>
-        <v>0.15384615384615385</v>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2416,9 +2483,13 @@
         <v>3</v>
       </c>
       <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
+      <c r="F15" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="H15" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18" t="s">
@@ -2430,15 +2501,19 @@
       <c r="M15" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
+      <c r="N15" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="P15" s="21">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q15" s="22">
         <f t="shared" si="3"/>
-        <v>0.23076923076923078</v>
+        <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2454,11 +2529,15 @@
         <v>3</v>
       </c>
       <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="F16" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="G16" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="18"/>
+      <c r="H16" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18" t="s">
@@ -2468,15 +2547,19 @@
         <v>3</v>
       </c>
       <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
+      <c r="N16" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="P16" s="21">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q16" s="22">
         <f t="shared" si="3"/>
-        <v>0.23076923076923078</v>
+        <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2494,9 +2577,13 @@
         <v>3</v>
       </c>
       <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="F17" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="H17" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18" t="s">
@@ -2508,15 +2595,19 @@
       <c r="M17" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
+      <c r="N17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="P17" s="21">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q17" s="22">
         <f t="shared" si="3"/>
-        <v>0.23076923076923078</v>
+        <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2530,9 +2621,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="F18" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="H18" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18" t="s">
@@ -2542,15 +2637,19 @@
         <v>3</v>
       </c>
       <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
+      <c r="N18" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="P18" s="21">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q18" s="22">
         <f t="shared" si="3"/>
-        <v>0.15384615384615385</v>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2564,9 +2663,13 @@
         <v>3</v>
       </c>
       <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="F19" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="H19" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18" t="s">
@@ -2576,15 +2679,19 @@
         <v>3</v>
       </c>
       <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
+      <c r="N19" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="P19" s="21">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q19" s="22">
         <f t="shared" si="3"/>
-        <v>0.15384615384615385</v>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2598,9 +2705,13 @@
         <v>3</v>
       </c>
       <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+      <c r="F20" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="H20" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18" t="s">
@@ -2610,15 +2721,19 @@
         <v>3</v>
       </c>
       <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
+      <c r="N20" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="P20" s="21">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q20" s="22">
         <f t="shared" si="3"/>
-        <v>0.15384615384615385</v>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2632,9 +2747,13 @@
         <v>3</v>
       </c>
       <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+      <c r="F21" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="H21" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18" t="s">
@@ -2644,15 +2763,19 @@
         <v>3</v>
       </c>
       <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
+      <c r="N21" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="P21" s="21">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q21" s="22">
         <f t="shared" si="3"/>
-        <v>0.15384615384615385</v>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2673,7 +2796,7 @@
       </c>
       <c r="F22" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G22" s="15">
         <f t="shared" si="4"/>
@@ -2681,7 +2804,7 @@
       </c>
       <c r="H22" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="4"/>
@@ -2705,11 +2828,11 @@
       </c>
       <c r="N22" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O22" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P22" s="16"/>
     </row>
@@ -2733,7 +2856,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="116" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2856,7 +2979,7 @@
         <v>39</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K5" s="27" t="s">
         <v>38</v>
@@ -2949,10 +3072,16 @@
       <c r="C7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="F7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
@@ -2963,11 +3092,11 @@
       <c r="O7" s="18"/>
       <c r="P7" s="21">
         <f t="shared" ref="P7:P21" si="2">COUNTA(C7:K7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="22">
         <f t="shared" ref="Q7:Q21" si="3">P7/COUNTA($C$6:$O$6)</f>
-        <v>7.6923076923076927E-2</v>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2981,17 +3110,25 @@
       <c r="C8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="F8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="H8" s="18" t="s">
         <v>3</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="18"/>
+      <c r="J8" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
@@ -2999,11 +3136,11 @@
       <c r="O8" s="18"/>
       <c r="P8" s="21">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q8" s="22">
         <f t="shared" si="3"/>
-        <v>0.23076923076923078</v>
+        <v>0.53846153846153844</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -3017,13 +3154,21 @@
       <c r="C9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="F9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="J9" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
@@ -3031,11 +3176,11 @@
       <c r="O9" s="18"/>
       <c r="P9" s="21">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q9" s="22">
         <f t="shared" si="3"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -3049,17 +3194,25 @@
       <c r="C10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="F10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="H10" s="18" t="s">
         <v>3</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="18"/>
+      <c r="J10" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
@@ -3067,11 +3220,11 @@
       <c r="O10" s="18"/>
       <c r="P10" s="21">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q10" s="22">
         <f t="shared" si="3"/>
-        <v>0.23076923076923078</v>
+        <v>0.53846153846153844</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -3085,10 +3238,16 @@
       <c r="C11" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="F11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -3099,11 +3258,11 @@
       <c r="O11" s="18"/>
       <c r="P11" s="21">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q11" s="22">
         <f t="shared" si="3"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -3117,19 +3276,27 @@
       <c r="C12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="F12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="H12" s="18" t="s">
         <v>3</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="18"/>
+      <c r="J12" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
@@ -3137,11 +3304,11 @@
       <c r="O12" s="18"/>
       <c r="P12" s="21">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q12" s="22">
         <f t="shared" si="3"/>
-        <v>0.30769230769230771</v>
+        <v>0.61538461538461542</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -3155,19 +3322,27 @@
       <c r="C13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="F13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="H13" s="18" t="s">
         <v>3</v>
       </c>
       <c r="I13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="18"/>
+      <c r="J13" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
@@ -3175,11 +3350,11 @@
       <c r="O13" s="18"/>
       <c r="P13" s="21">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q13" s="22">
         <f t="shared" si="3"/>
-        <v>0.30769230769230771</v>
+        <v>0.61538461538461542</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -3193,10 +3368,16 @@
       <c r="C14" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="F14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
@@ -3207,11 +3388,11 @@
       <c r="O14" s="18"/>
       <c r="P14" s="21">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q14" s="22">
         <f t="shared" si="3"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -3225,10 +3406,16 @@
       <c r="C15" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="F15" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
@@ -3239,11 +3426,11 @@
       <c r="O15" s="18"/>
       <c r="P15" s="21">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q15" s="22">
         <f t="shared" si="3"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -3257,10 +3444,16 @@
       <c r="C16" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="18"/>
+      <c r="D16" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="F16" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -3271,11 +3464,11 @@
       <c r="O16" s="18"/>
       <c r="P16" s="21">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q16" s="22">
         <f t="shared" si="3"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -3289,11 +3482,19 @@
       <c r="C17" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="18"/>
+      <c r="D17" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="F17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
@@ -3303,11 +3504,11 @@
       <c r="O17" s="18"/>
       <c r="P17" s="21">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q17" s="22">
         <f t="shared" si="3"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -3319,10 +3520,16 @@
       <c r="C18" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="18"/>
+      <c r="D18" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="F18" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -3333,11 +3540,11 @@
       <c r="O18" s="18"/>
       <c r="P18" s="21">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q18" s="22">
         <f t="shared" si="3"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -3349,10 +3556,16 @@
       <c r="C19" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="18"/>
+      <c r="D19" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="F19" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -3363,11 +3576,11 @@
       <c r="O19" s="18"/>
       <c r="P19" s="21">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q19" s="22">
         <f t="shared" si="3"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -3379,10 +3592,16 @@
       <c r="C20" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="18"/>
+      <c r="D20" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="F20" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
@@ -3393,11 +3612,11 @@
       <c r="O20" s="18"/>
       <c r="P20" s="21">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q20" s="22">
         <f t="shared" si="3"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -3409,10 +3628,16 @@
       <c r="C21" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="18"/>
+      <c r="D21" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="F21" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -3423,11 +3648,11 @@
       <c r="O21" s="18"/>
       <c r="P21" s="21">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q21" s="22">
         <f t="shared" si="3"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -3440,7 +3665,7 @@
       </c>
       <c r="D22" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E22" s="15">
         <f t="shared" si="4"/>
@@ -3448,15 +3673,15 @@
       </c>
       <c r="F22" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G22" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H22" s="15">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="4"/>
@@ -3464,7 +3689,7 @@
       </c>
       <c r="J22" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K22" s="15">
         <f t="shared" si="4"/>
